--- a/srcript/reg_tab/csr_excel/register/asic/egr_vlan_filter.xlsx
+++ b/srcript/reg_tab/csr_excel/register/asic/egr_vlan_filter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -502,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P0_EGR_VLAN_FILTER_ADDR_PREFIX，
-P1_EGR_VLAN_FILTER_ADDR_PREFIX</t>
-  </si>
-  <si>
     <t>csr_disable_mirror_checks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,6 +678,10 @@
   <si>
     <t>ECO预留寄存器</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0_EGR_VLAN_FILTER_ADDR_PREFIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -964,6 +964,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,13 +1012,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,15 +1037,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,47 +1060,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1364,8 +1364,8 @@
   </sheetPr>
   <dimension ref="A2:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD66"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1381,12 +1381,12 @@
     <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="27">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1421,61 +1421,61 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="21" t="s">
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
@@ -1483,13 +1483,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>90</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1501,7 +1501,7 @@
       <c r="F7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="42" t="s">
         <v>93</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1509,9 +1509,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="42"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="4" t="s">
         <v>115</v>
       </c>
@@ -1521,15 +1521,15 @@
       <c r="F8" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="4" t="s">
         <v>114</v>
       </c>
@@ -1539,19 +1539,19 @@
       <c r="F9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="42"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1563,7 +1563,7 @@
       <c r="F10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="42" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1571,9 +1571,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="4" t="s">
         <v>121</v>
       </c>
@@ -1583,15 +1583,15 @@
       <c r="F11" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="4" t="s">
         <v>116</v>
       </c>
@@ -1601,19 +1601,19 @@
       <c r="F12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1625,7 +1625,7 @@
       <c r="F13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="54" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -1633,9 +1633,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="4" t="s">
         <v>122</v>
       </c>
@@ -1645,15 +1645,15 @@
       <c r="F14" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="43"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="4" t="s">
         <v>117</v>
       </c>
@@ -1663,19 +1663,19 @@
       <c r="F15" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="42" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1687,7 +1687,7 @@
       <c r="F16" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="54" t="s">
         <v>93</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1695,9 +1695,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="4" t="s">
         <v>123</v>
       </c>
@@ -1707,15 +1707,15 @@
       <c r="F17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="4" t="s">
         <v>118</v>
       </c>
@@ -1725,19 +1725,19 @@
       <c r="F18" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>112</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>104</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1749,7 +1749,7 @@
       <c r="F19" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="42" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -1757,9 +1757,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="4" t="s">
         <v>124</v>
       </c>
@@ -1769,15 +1769,15 @@
       <c r="F20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="43"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="4" t="s">
         <v>119</v>
       </c>
@@ -1787,19 +1787,19 @@
       <c r="F21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="43"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>113</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>106</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1811,7 +1811,7 @@
       <c r="F22" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="42" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -1819,9 +1819,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="4" t="s">
         <v>125</v>
       </c>
@@ -1831,15 +1831,15 @@
       <c r="F23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="42"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
-      <c r="A24" s="43"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="4" t="s">
         <v>120</v>
       </c>
@@ -1849,19 +1849,19 @@
       <c r="F24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="43"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="19" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -1873,7 +1873,7 @@
       <c r="F25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="52" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -1881,9 +1881,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="54"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="17" t="s">
         <v>51</v>
       </c>
@@ -1893,19 +1893,19 @@
       <c r="F26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="44" t="s">
-        <v>137</v>
+      <c r="A27" s="57" t="s">
+        <v>136</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1917,7 +1917,7 @@
       <c r="F27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="58" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="8" t="s">
@@ -1925,9 +1925,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="45"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="14" t="s">
         <v>40</v>
       </c>
@@ -1937,19 +1937,19 @@
       <c r="F28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="59" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="45" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -1961,7 +1961,7 @@
       <c r="F29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="58" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="9" t="s">
@@ -1969,11 +1969,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="12">
         <v>4</v>
@@ -1981,15 +1981,15 @@
       <c r="F30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="45"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27" outlineLevel="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="14" t="s">
         <v>9</v>
       </c>
@@ -1999,15 +1999,15 @@
       <c r="F31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="14" t="s">
         <v>9</v>
       </c>
@@ -2017,15 +2017,15 @@
       <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="45"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" outlineLevel="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="33"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="14" t="s">
         <v>9</v>
       </c>
@@ -2035,17 +2035,17 @@
       <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="45"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="27" outlineLevel="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34" s="12">
         <v>0</v>
@@ -2053,19 +2053,19 @@
       <c r="F34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="45"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="1">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="59" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="45" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -2077,7 +2077,7 @@
       <c r="F35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="45" t="s">
         <v>52</v>
       </c>
       <c r="H35" s="9" t="s">
@@ -2085,9 +2085,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1">
-      <c r="A36" s="49"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="33"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="11" t="s">
         <v>56</v>
       </c>
@@ -2097,15 +2097,15 @@
       <c r="F36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="33"/>
+      <c r="G36" s="46"/>
       <c r="H36" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="34"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="11" t="s">
         <v>46</v>
       </c>
@@ -2115,31 +2115,31 @@
       <c r="F37" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="47"/>
       <c r="H37" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="32" t="s">
-        <v>149</v>
+      <c r="A38" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="45" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -2147,9 +2147,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="1">
-      <c r="A39" s="33"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="30"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="11" t="s">
         <v>9</v>
       </c>
@@ -2159,59 +2159,59 @@
       <c r="F39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="30"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="45" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="32" t="s">
-        <v>157</v>
-      </c>
       <c r="B41" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>160</v>
-      </c>
       <c r="H41" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" outlineLevel="1">
-      <c r="A42" s="33"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="30"/>
-      <c r="C42" s="33"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="11" t="s">
         <v>9</v>
       </c>
@@ -2221,49 +2221,49 @@
       <c r="F42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="46"/>
       <c r="H42" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="54" outlineLevel="1">
-      <c r="A43" s="34"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="34"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="34"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="45" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="32" t="s">
-        <v>163</v>
-      </c>
       <c r="B44" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>158</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -2271,9 +2271,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="1">
-      <c r="A45" s="33"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="30"/>
-      <c r="C45" s="33"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="11" t="s">
         <v>9</v>
       </c>
@@ -2283,49 +2283,49 @@
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:8" outlineLevel="1">
-      <c r="A46" s="34"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="34"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="37"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="32" t="s">
-        <v>165</v>
+      <c r="A47" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>159</v>
-      </c>
       <c r="D47" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -2333,9 +2333,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" outlineLevel="1">
-      <c r="A48" s="33"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="33"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="11" t="s">
         <v>9</v>
       </c>
@@ -2345,37 +2345,37 @@
       <c r="F48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="36"/>
+      <c r="G48" s="64"/>
       <c r="H48" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:8" outlineLevel="1">
-      <c r="A49" s="34"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="30"/>
-      <c r="C49" s="34"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="37"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:8" outlineLevel="1">
-      <c r="A50" s="44" t="s">
-        <v>134</v>
+      <c r="A50" s="57" t="s">
+        <v>133</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="58" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -2387,7 +2387,7 @@
       <c r="F50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="58" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="9" t="s">
@@ -2395,9 +2395,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" outlineLevel="1">
-      <c r="A51" s="44"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="45"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="6" t="s">
         <v>65</v>
       </c>
@@ -2407,15 +2407,15 @@
       <c r="F51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="45"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:8" outlineLevel="1">
-      <c r="A52" s="44"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="45"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="6" t="s">
         <v>65</v>
       </c>
@@ -2425,15 +2425,15 @@
       <c r="F52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="45"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" outlineLevel="1">
-      <c r="A53" s="44"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="23"/>
-      <c r="C53" s="45"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="6" t="s">
         <v>65</v>
       </c>
@@ -2443,15 +2443,15 @@
       <c r="F53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="45"/>
+      <c r="G53" s="58"/>
       <c r="H53" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="44"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="23"/>
-      <c r="C54" s="45"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="6" t="s">
         <v>65</v>
       </c>
@@ -2461,15 +2461,15 @@
       <c r="F54" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="45"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="44"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="45"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="29" t="s">
         <v>41</v>
       </c>
@@ -2479,15 +2479,15 @@
       <c r="F55" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="45"/>
+      <c r="G55" s="58"/>
       <c r="H55" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="27">
-      <c r="A56" s="44"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="23"/>
-      <c r="C56" s="45"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="29" t="s">
         <v>42</v>
       </c>
@@ -2497,15 +2497,15 @@
       <c r="F56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="45"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="44"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="45"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="6" t="s">
         <v>65</v>
       </c>
@@ -2515,15 +2515,15 @@
       <c r="F57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="45"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="44"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="45"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="6" t="s">
         <v>65</v>
       </c>
@@ -2533,19 +2533,19 @@
       <c r="F58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="45"/>
+      <c r="G58" s="58"/>
       <c r="H58" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="45" t="s">
         <v>64</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -2557,7 +2557,7 @@
       <c r="F59" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G59" s="32" t="s">
+      <c r="G59" s="45" t="s">
         <v>52</v>
       </c>
       <c r="H59" s="13" t="s">
@@ -2565,9 +2565,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="33"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="25"/>
-      <c r="C60" s="33"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="11" t="s">
         <v>79</v>
       </c>
@@ -2577,15 +2577,15 @@
       <c r="F60" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="33"/>
+      <c r="G60" s="46"/>
       <c r="H60" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="25"/>
-      <c r="C61" s="33"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="11" t="s">
         <v>80</v>
       </c>
@@ -2595,15 +2595,15 @@
       <c r="F61" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G61" s="33"/>
+      <c r="G61" s="46"/>
       <c r="H61" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="33"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="25"/>
-      <c r="C62" s="33"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="11" t="s">
         <v>81</v>
       </c>
@@ -2613,15 +2613,15 @@
       <c r="F62" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="33"/>
+      <c r="G62" s="46"/>
       <c r="H62" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="27">
-      <c r="A63" s="33"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="25"/>
-      <c r="C63" s="33"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="11" t="s">
         <v>82</v>
       </c>
@@ -2631,15 +2631,15 @@
       <c r="F63" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="33"/>
+      <c r="G63" s="46"/>
       <c r="H63" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="34"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="25"/>
-      <c r="C64" s="34"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="11" t="s">
         <v>83</v>
       </c>
@@ -2649,57 +2649,94 @@
       <c r="F64" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="34"/>
+      <c r="G64" s="47"/>
       <c r="H64" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="62" customFormat="1" outlineLevel="1">
-      <c r="A65" s="57" t="s">
+    <row r="65" spans="1:8" s="36" customFormat="1" outlineLevel="1">
+      <c r="A65" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="C65" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="D65" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="60" t="s">
+      <c r="F65" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="F65" s="61" t="s">
+      <c r="G65" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="36" customFormat="1">
+      <c r="A66" s="39"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="G65" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="62" customFormat="1">
-      <c r="A66" s="57"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63" t="s">
+      <c r="E66" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="E66" s="64" t="s">
+      <c r="F66" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="41"/>
+      <c r="H66" s="35" t="s">
         <v>175</v>
-      </c>
-      <c r="F66" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="61" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="G50:G58"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="G65:G66"/>
     <mergeCell ref="A4:A6"/>
@@ -2716,43 +2753,6 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="G50:G58"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="G47:G49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
